--- a/adts/rsc/DB설계서.xlsx
+++ b/adts/rsc/DB설계서.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="253">
   <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -963,6 +963,14 @@
   </si>
   <si>
     <t>고유 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1137,16 +1145,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1432,14 +1446,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:G172"/>
+  <dimension ref="B2:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -1468,7 +1482,7 @@
       <c r="F2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1478,7 +1492,7 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
@@ -1684,24 +1698,24 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="25"/>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="10"/>
+      <c r="C16" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="25"/>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -1710,59 +1724,57 @@
         <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="25"/>
       <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>17</v>
@@ -1770,24 +1782,26 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="26"/>
-      <c r="C21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="14"/>
+      <c r="C21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>39</v>
@@ -1796,46 +1810,46 @@
         <v>12</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G22" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="26"/>
       <c r="C23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
+        <v>101</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="26"/>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
+      <c r="C25" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
@@ -1844,30 +1858,30 @@
         <v>13</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="10"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -1876,132 +1890,132 @@
         <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="26"/>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="24"/>
-      <c r="C28" s="2" t="s">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="27"/>
+      <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
-      <c r="C31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="9"/>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
-      <c r="C32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="7"/>
+        <v>182</v>
+      </c>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="26"/>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="10"/>
+      <c r="C34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -2010,59 +2024,57 @@
         <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="26"/>
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
-      <c r="C36" s="2" t="s">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="s">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="26"/>
-      <c r="C38" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>17</v>
@@ -2070,102 +2082,104 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="26"/>
-      <c r="C39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G39" s="22"/>
+      <c r="C39" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="26"/>
       <c r="C40" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="26"/>
-      <c r="C41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>228</v>
+      <c r="C41" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="26"/>
       <c r="C42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="26"/>
-      <c r="C43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="10"/>
+      <c r="C44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="26"/>
       <c r="C45" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -2174,212 +2188,212 @@
         <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="26"/>
+      <c r="C46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="24"/>
-      <c r="C46" s="2" t="s">
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="27"/>
+      <c r="C47" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="25" t="s">
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="E48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="G48" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="25"/>
-      <c r="C48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="25"/>
-      <c r="C49" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G49" s="9"/>
+      <c r="E49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="25"/>
       <c r="C50" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>13</v>
+      <c r="E50" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="G50" s="9"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="25"/>
-      <c r="C51" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>12</v>
+      <c r="C51" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" s="5"/>
+        <v>250</v>
+      </c>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="25"/>
       <c r="C52" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="25"/>
-      <c r="C53" s="3" t="s">
-        <v>30</v>
+      <c r="C53" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="25"/>
       <c r="C54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="25"/>
       <c r="C55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="G55" s="15"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="25"/>
       <c r="C56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="25"/>
+      <c r="C57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="25"/>
-      <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" s="10"/>
+      <c r="G57" s="11"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="25"/>
       <c r="C58" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -2388,196 +2402,196 @@
         <v>46</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="25"/>
       <c r="C59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="25"/>
+      <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="10"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="25" t="s">
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="E61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="25"/>
-      <c r="C61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="25"/>
-      <c r="C62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G62" s="9"/>
+      <c r="C62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="25"/>
       <c r="C63" s="3" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="25"/>
       <c r="C64" s="3" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="25"/>
       <c r="C65" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="25"/>
       <c r="C66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>228</v>
+        <v>29</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="25"/>
       <c r="C67" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="25"/>
       <c r="C68" s="3" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="25"/>
-      <c r="C69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" s="10"/>
+      <c r="C69" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="25"/>
       <c r="C70" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
@@ -2586,148 +2600,148 @@
         <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G70" s="10"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="25"/>
       <c r="C71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="25"/>
+      <c r="C72" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="10"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="25" t="s">
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="E73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G73" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="25"/>
-      <c r="C73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="25"/>
-      <c r="C74" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G74" s="11"/>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="25"/>
       <c r="C75" s="4" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>49</v>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G75" s="11"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="25"/>
       <c r="C76" s="4" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G76" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="G76" s="11"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="25"/>
-      <c r="C77" s="3" t="s">
-        <v>168</v>
+      <c r="C77" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G77" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
-      <c r="C78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="10"/>
+      <c r="C78" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="5"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="25"/>
       <c r="C79" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>5</v>
@@ -2736,59 +2750,57 @@
         <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="25"/>
       <c r="C80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" s="25"/>
+      <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="23" t="s">
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="E82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="26"/>
-      <c r="C82" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>17</v>
@@ -2796,146 +2808,148 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="26"/>
-      <c r="C83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G83" s="8"/>
+      <c r="C83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="26"/>
       <c r="C84" s="3" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="G84" s="8"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="26"/>
       <c r="C85" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>12</v>
+        <v>230</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="G85" s="8"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="26"/>
       <c r="C86" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E86" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F86" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G86" s="8"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="26"/>
       <c r="C87" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G87" s="8"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="26"/>
       <c r="C88" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F88" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G88" s="8"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="26"/>
       <c r="C89" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G89" s="8"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="26"/>
       <c r="C90" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G90" s="9"/>
-    </row>
-    <row r="91" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="26"/>
       <c r="C91" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>18</v>
+        <v>165</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="G91" s="9"/>
     </row>
     <row r="92" spans="2:7" ht="33" x14ac:dyDescent="0.3">
       <c r="B92" s="26"/>
       <c r="C92" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>18</v>
@@ -2944,30 +2958,30 @@
         <v>13</v>
       </c>
       <c r="F92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B93" s="26"/>
+      <c r="C93" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G92" s="9"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="26"/>
-      <c r="C93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G93" s="10"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="26"/>
       <c r="C94" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
@@ -2976,221 +2990,219 @@
         <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="26"/>
+      <c r="C95" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G94" s="10"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="24"/>
-      <c r="C95" s="2" t="s">
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="27"/>
+      <c r="C96" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="23" t="s">
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="2" t="s">
+      <c r="E97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="G97" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="26"/>
-      <c r="C97" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="26"/>
-      <c r="C98" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G98" s="5"/>
+      <c r="C98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="26"/>
       <c r="C99" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="26"/>
       <c r="C100" s="3" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G100" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="26"/>
       <c r="C101" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E101" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F101" s="3" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="G101" s="11"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="26"/>
       <c r="C102" s="3" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="20"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G102" s="11"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="26"/>
-      <c r="C103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G103" s="10"/>
+      <c r="C103" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="20"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="26"/>
       <c r="C104" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" s="26"/>
+      <c r="C105" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G104" s="10"/>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="24"/>
-      <c r="C105" s="2" t="s">
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" s="27"/>
+      <c r="C106" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="10"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="25" t="s">
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="2" t="s">
+      <c r="E107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B107" s="25"/>
-      <c r="C107" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>17</v>
@@ -3198,103 +3210,105 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="25"/>
-      <c r="C108" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G108" s="10"/>
+      <c r="C108" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="25"/>
       <c r="C109" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>193</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G109" s="10"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="25"/>
       <c r="C110" s="4" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G110" s="11"/>
+        <v>193</v>
+      </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="25"/>
-      <c r="C111" s="3" t="s">
-        <v>30</v>
+      <c r="C111" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G111" s="11"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="25"/>
       <c r="C112" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="G112" s="11"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="25"/>
-      <c r="C113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113" s="10"/>
+      <c r="C113" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G113" s="11"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="25"/>
       <c r="C114" s="2" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>5</v>
@@ -3303,654 +3317,654 @@
         <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="25"/>
       <c r="C115" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B116" s="25"/>
+      <c r="C116" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E116" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="10"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B116" s="23" t="s">
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B117" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="10" t="s">
+      <c r="G117" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="26"/>
-      <c r="C117" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="26"/>
-      <c r="C118" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G118" s="21"/>
+      <c r="C118" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="26"/>
-      <c r="C119" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>18</v>
+      <c r="C119" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="G119" s="21"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="26"/>
-      <c r="C120" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>228</v>
+      <c r="C120" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="G120" s="21"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="26"/>
-      <c r="C121" s="3" t="s">
-        <v>31</v>
+      <c r="C121" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G121" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F121" s="4"/>
+      <c r="G121" s="24"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="26"/>
-      <c r="C122" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" s="10"/>
+      <c r="C122" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G122" s="21"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="26"/>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G123" s="21"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B124" s="26"/>
+      <c r="C124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B125" s="26"/>
+      <c r="C125" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G123" s="10"/>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B124" s="24"/>
-      <c r="C124" s="2" t="s">
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B126" s="27"/>
+      <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B125" s="25" t="s">
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B127" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G125" s="10" t="s">
+      <c r="G127" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="25"/>
-      <c r="C126" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B127" s="25"/>
-      <c r="C127" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G127" s="3"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="25"/>
-      <c r="C128" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+      <c r="C128" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="25"/>
       <c r="C129" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G129" s="7"/>
+      <c r="F129" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G129" s="3"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="25"/>
-      <c r="C130" s="4" t="s">
-        <v>155</v>
+      <c r="C130" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="G130" s="22"/>
+        <v>49</v>
+      </c>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="25"/>
-      <c r="C131" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>18</v>
+      <c r="C131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G131" s="7"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="25"/>
-      <c r="C132" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G132" s="10"/>
+      <c r="C132" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G132" s="22"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="25"/>
-      <c r="C133" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>5</v>
+      <c r="C133" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G133" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="23"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="25"/>
-      <c r="C134" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="C134" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G134" s="10"/>
+      <c r="E134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G134" s="7"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B135" s="25" t="s">
-        <v>151</v>
-      </c>
+      <c r="B135" s="25"/>
       <c r="C135" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G135" s="10"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="25"/>
       <c r="C136" s="2" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G136" s="10"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="25"/>
-      <c r="C137" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G137" s="10"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B138" s="25"/>
-      <c r="C138" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" s="9"/>
+      <c r="B138" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="25"/>
-      <c r="C139" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G139" s="13"/>
+      <c r="C139" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="25"/>
       <c r="C140" s="4" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G140" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="10"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="25"/>
-      <c r="C141" s="4" t="s">
-        <v>156</v>
+      <c r="C141" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F141" s="4"/>
-      <c r="G141" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="9"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="25"/>
-      <c r="C142" s="19" t="s">
-        <v>225</v>
+      <c r="C142" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="16"/>
+        <v>242</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G142" s="13"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="25"/>
       <c r="C143" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="F143" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="G143" s="13"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="25"/>
-      <c r="C144" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G144" s="10"/>
+      <c r="C144" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F144" s="4"/>
+      <c r="G144" s="13"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="25"/>
-      <c r="C145" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G145" s="10"/>
+      <c r="C145" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="16"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="25"/>
-      <c r="C146" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G146" s="10"/>
+      <c r="C146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F146" s="4"/>
+      <c r="G146" s="13"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B147" s="25" t="s">
-        <v>158</v>
-      </c>
+      <c r="B147" s="25"/>
       <c r="C147" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G147" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G147" s="10"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="25"/>
       <c r="C148" s="2" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" s="10" t="s">
-        <v>17</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G148" s="10"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="25"/>
-      <c r="C149" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G149" s="9"/>
+      <c r="C149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="10"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B150" s="25"/>
-      <c r="C150" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" s="3"/>
+      <c r="B150" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="25"/>
-      <c r="C151" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F151" s="3"/>
+      <c r="C151" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="25"/>
-      <c r="C152" s="4" t="s">
-        <v>224</v>
+      <c r="C152" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G152" s="13"/>
+        <v>160</v>
+      </c>
+      <c r="G152" s="9"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" s="25"/>
       <c r="C153" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>49</v>
+        <v>107</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F153" s="3"/>
-      <c r="G153" s="16"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="25"/>
-      <c r="C154" s="19" t="s">
-        <v>226</v>
+      <c r="C154" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F154" s="3"/>
-      <c r="G154" s="16"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="25"/>
-      <c r="C155" s="19" t="s">
-        <v>225</v>
+      <c r="C155" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>18</v>
@@ -3958,13 +3972,15 @@
       <c r="E155" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="16"/>
+      <c r="F155" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G155" s="13"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="25"/>
       <c r="C156" s="4" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>18</v>
@@ -3973,114 +3989,104 @@
         <v>49</v>
       </c>
       <c r="F156" s="3"/>
-      <c r="G156" s="13"/>
+      <c r="G156" s="16"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="25"/>
-      <c r="C157" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G157" s="10"/>
+      <c r="C157" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F157" s="3"/>
+      <c r="G157" s="16"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="25"/>
-      <c r="C158" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G158" s="10"/>
+      <c r="C158" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="16"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="25"/>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="G159" s="13"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B160" s="25"/>
+      <c r="C160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B161" s="25"/>
+      <c r="C161" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B162" s="25"/>
+      <c r="C162" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D162" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G159" s="10"/>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B160" s="25" t="s">
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B163" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B161" s="26"/>
-      <c r="C161" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B162" s="26"/>
-      <c r="C162" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G162" s="9"/>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B163" s="26"/>
-      <c r="C163" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>2</v>
@@ -4088,173 +4094,225 @@
       <c r="E163" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F163" s="3"/>
-      <c r="G163" s="9"/>
+      <c r="F163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="26"/>
-      <c r="C164" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="9"/>
+      <c r="C164" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="26"/>
-      <c r="C165" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>12</v>
+      <c r="C165" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G165" s="12"/>
+        <v>194</v>
+      </c>
+      <c r="G165" s="9"/>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="26"/>
-      <c r="C166" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="12"/>
+      <c r="C166" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166" s="3"/>
+      <c r="G166" s="9"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="26"/>
-      <c r="C167" s="4" t="s">
-        <v>121</v>
+      <c r="C167" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F167" s="3"/>
-      <c r="G167" s="12"/>
+      <c r="G167" s="9"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="26"/>
-      <c r="C168" s="3" t="s">
-        <v>30</v>
+      <c r="C168" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G168" s="12"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="26"/>
-      <c r="C169" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>18</v>
+      <c r="C169" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="26"/>
-      <c r="C170" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G170" s="10"/>
+      <c r="C170" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F170" s="3"/>
+      <c r="G170" s="12"/>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="26"/>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G171" s="12"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B172" s="26"/>
+      <c r="C172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B173" s="26"/>
+      <c r="C173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B174" s="26"/>
+      <c r="C174" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F171" s="2" t="s">
+      <c r="E174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F174" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G171" s="10"/>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B172" s="24"/>
-      <c r="C172" s="2" t="s">
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B175" s="27"/>
+      <c r="C175" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G172" s="10"/>
+      <c r="G175" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B37:B46"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B135:B146"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B160:B172"/>
-    <mergeCell ref="B106:B115"/>
-    <mergeCell ref="B116:B124"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="B96:B105"/>
-    <mergeCell ref="B125:B134"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B60:B71"/>
-    <mergeCell ref="B47:B59"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="B81:B95"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B138:B149"/>
+    <mergeCell ref="B150:B162"/>
+    <mergeCell ref="B163:B175"/>
+    <mergeCell ref="B107:B116"/>
+    <mergeCell ref="B117:B126"/>
+    <mergeCell ref="B11:B19"/>
+    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="B97:B106"/>
+    <mergeCell ref="B127:B137"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B61:B72"/>
+    <mergeCell ref="B48:B60"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="B82:B96"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4281,35 +4339,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="28" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4411,7 +4469,7 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -4427,7 +4485,7 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4547,7 +4605,7 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
@@ -4563,7 +4621,7 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -4685,7 +4743,7 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
@@ -4701,7 +4759,7 @@
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -4885,7 +4943,7 @@
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="24"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
@@ -4901,7 +4959,7 @@
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="28" t="s">
         <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -5083,7 +5141,7 @@
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="24"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
@@ -5099,7 +5157,7 @@
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -5249,7 +5307,7 @@
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="24"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
@@ -5265,7 +5323,7 @@
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="28" t="s">
         <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -5397,7 +5455,7 @@
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="24"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
@@ -5413,7 +5471,7 @@
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="28" t="s">
         <v>106</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -5605,7 +5663,7 @@
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="24"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
@@ -5621,7 +5679,7 @@
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="28" t="s">
         <v>99</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -5766,7 +5824,7 @@
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="24"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
@@ -5782,7 +5840,7 @@
       <c r="G92" s="10"/>
     </row>
     <row r="93" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="23" t="s">
+      <c r="B93" s="28" t="s">
         <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -5976,7 +6034,7 @@
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="24"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="2" t="s">
         <v>7</v>
       </c>
@@ -5993,12 +6051,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B61:B69"/>
     <mergeCell ref="B70:B82"/>
     <mergeCell ref="B83:B92"/>
@@ -6009,6 +6061,12 @@
     <mergeCell ref="B27:B38"/>
     <mergeCell ref="B39:B50"/>
     <mergeCell ref="B51:B60"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
